--- a/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.053029</v>
+        <v>7.453207</v>
       </c>
       <c r="E2" t="n">
-        <v>10.300972</v>
+        <v>7.351753</v>
       </c>
       <c r="F2" t="n">
-        <v>10.376913</v>
+        <v>6.955867</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2479429999999994</v>
+        <v>0.1014539999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3238839999999996</v>
+        <v>0.4973400000000003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE814H01029</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Adani Power Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.351753</v>
+        <v>7.443543</v>
       </c>
       <c r="E3" t="n">
-        <v>6.955867</v>
+        <v>7.299758</v>
       </c>
       <c r="F3" t="n">
-        <v>6.281494</v>
+        <v>7.346369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3958860000000008</v>
+        <v>0.1437850000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1.070259</v>
+        <v>0.09717399999999987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE814H01029</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adani Power Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.299758</v>
+        <v>5.883813</v>
       </c>
       <c r="E4" t="n">
-        <v>7.346369</v>
+        <v>5.351335</v>
       </c>
       <c r="F4" t="n">
-        <v>8.568533</v>
+        <v>5.414061</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0466110000000004</v>
+        <v>0.5324780000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.268775000000001</v>
+        <v>0.4697519999999997</v>
       </c>
     </row>
     <row r="5">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>5.877507</v>
+      </c>
+      <c r="E5" t="n">
         <v>6.049553</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.009159</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.516237</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.04039400000000004</v>
+        <v>-0.1720460000000008</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4666839999999999</v>
+        <v>-0.1316520000000008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.351335</v>
+        <v>4.404164</v>
       </c>
       <c r="E6" t="n">
-        <v>5.414061</v>
+        <v>4.862049</v>
       </c>
       <c r="F6" t="n">
-        <v>5.009561</v>
+        <v>4.924742</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0627260000000005</v>
+        <v>-0.4578850000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.341774</v>
+        <v>-0.5205780000000004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Life Insurance Corporation Of India</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.862049</v>
+        <v>4.282834</v>
       </c>
       <c r="E7" t="n">
-        <v>4.924742</v>
+        <v>4.123191</v>
       </c>
       <c r="F7" t="n">
-        <v>4.917711</v>
+        <v>4.209026</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06269300000000033</v>
+        <v>0.159643</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05566199999999988</v>
+        <v>0.07380800000000054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Life Insurance Corporation Of India</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.123191</v>
+        <v>3.926565</v>
       </c>
       <c r="E8" t="n">
-        <v>4.209026</v>
+        <v>3.785962</v>
       </c>
       <c r="F8" t="n">
-        <v>4.195969</v>
+        <v>3.681313</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08583499999999944</v>
+        <v>0.140603</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.07277799999999957</v>
+        <v>0.2452520000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Britannia Industries Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.875591</v>
+        <v>3.691426</v>
       </c>
       <c r="E9" t="n">
-        <v>3.665344</v>
+        <v>3.336568</v>
       </c>
       <c r="F9" t="n">
-        <v>3.647017</v>
+        <v>3.16152</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2102469999999999</v>
+        <v>0.3548579999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2285740000000001</v>
+        <v>0.529906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.785962</v>
+        <v>3.458773</v>
       </c>
       <c r="E10" t="n">
-        <v>3.681313</v>
+        <v>3.328043</v>
       </c>
       <c r="F10" t="n">
-        <v>3.633979</v>
+        <v>3.336922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1046490000000002</v>
+        <v>0.1307299999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0.151983</v>
+        <v>0.1218509999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.336568</v>
+        <v>3.364805</v>
       </c>
       <c r="E11" t="n">
-        <v>3.16152</v>
+        <v>10.053029</v>
       </c>
       <c r="F11" t="n">
-        <v>3.087978</v>
+        <v>10.300972</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1750480000000003</v>
+        <v>-6.688224</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2485900000000001</v>
+        <v>-6.936166999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.328043</v>
+        <v>2.987864</v>
       </c>
       <c r="E12" t="n">
-        <v>3.336922</v>
+        <v>0.9694970000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>3.451812</v>
+        <v>0.97825</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.008878999999999859</v>
+        <v>2.018367</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1237689999999998</v>
+        <v>2.009614</v>
       </c>
     </row>
     <row r="13">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>2.859032</v>
+      </c>
+      <c r="E13" t="n">
         <v>2.951742</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.756796</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.87481</v>
-      </c>
       <c r="G13" t="n">
-        <v>0.1949459999999998</v>
+        <v>-0.09270999999999985</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07693199999999978</v>
+        <v>0.102236</v>
       </c>
     </row>
     <row r="14">
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>2.32312</v>
+      </c>
+      <c r="E14" t="n">
         <v>2.569009</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.588262</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.122328</v>
-      </c>
       <c r="G14" t="n">
-        <v>-0.01925299999999996</v>
+        <v>-0.245889</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4466809999999999</v>
+        <v>-0.265142</v>
       </c>
     </row>
     <row r="15">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>2.144618</v>
+      </c>
+      <c r="E15" t="n">
         <v>2.042605</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.031334</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.938514</v>
-      </c>
       <c r="G15" t="n">
-        <v>0.01127099999999981</v>
+        <v>0.1020129999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1040909999999999</v>
+        <v>0.1132839999999997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.897167</v>
+        <v>1.941982</v>
       </c>
       <c r="E16" t="n">
-        <v>1.948507</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.029543</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05133999999999994</v>
+        <v>1.941982</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1323759999999998</v>
+        <v>1.941982</v>
       </c>
     </row>
     <row r="17">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>1.84647</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.858064</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.076612</v>
       </c>
-      <c r="F17" t="n">
-        <v>2.050228</v>
-      </c>
       <c r="G17" t="n">
-        <v>-0.218548</v>
+        <v>-0.01159399999999988</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1921640000000002</v>
+        <v>-0.2301419999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE880J01026</t>
+          <t>INE0NHL23019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JSW Infrastructure Limited</t>
+          <t>Indus Infra Trust</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.69732</v>
+        <v>1.731116</v>
       </c>
       <c r="E18" t="n">
-        <v>1.572018</v>
+        <v>1.545383</v>
       </c>
       <c r="F18" t="n">
-        <v>1.679708</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.125302</v>
+        <v>0.1857330000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01761199999999996</v>
+        <v>1.731116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE0NHL23019</t>
+          <t>INE03Q201024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Indus Infra Trust</t>
+          <t>Alivus Life Sciences</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.545383</v>
+        <v>1.681287</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.488858</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.423964</v>
       </c>
       <c r="G19" t="n">
-        <v>1.545383</v>
+        <v>0.192429</v>
       </c>
       <c r="H19" t="n">
-        <v>1.545383</v>
+        <v>0.257323</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE880J01026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>JSW Infrastructure Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.491722</v>
+        <v>1.659231</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.69732</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.572018</v>
       </c>
       <c r="G20" t="n">
-        <v>1.491722</v>
+        <v>-0.03808900000000004</v>
       </c>
       <c r="H20" t="n">
-        <v>1.491722</v>
+        <v>0.08721299999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE03Q201024</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alivus Life Sciences</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.488858</v>
+        <v>1.041856</v>
       </c>
       <c r="E21" t="n">
-        <v>1.423964</v>
+        <v>0.911592</v>
       </c>
       <c r="F21" t="n">
-        <v>1.428548</v>
+        <v>0.838374</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06489400000000001</v>
+        <v>0.1302639999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06031000000000009</v>
+        <v>0.2034819999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.432332</v>
+        <v>1.005478</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.071872</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.012415</v>
       </c>
       <c r="G22" t="n">
-        <v>1.432332</v>
+        <v>-0.06639399999999984</v>
       </c>
       <c r="H22" t="n">
-        <v>1.432332</v>
+        <v>-0.006936999999999971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE931S01010</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Limited</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.071872</v>
+        <v>0.996851</v>
       </c>
       <c r="E23" t="n">
-        <v>1.012415</v>
+        <v>1.028634</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000521</v>
+        <v>0.951203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05945699999999987</v>
+        <v>-0.03178300000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07135099999999994</v>
+        <v>0.04564800000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.028634</v>
+        <v>0.6711510000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.951203</v>
+        <v>0.75695</v>
       </c>
       <c r="F24" t="n">
-        <v>0.914327</v>
+        <v>0.753534</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07743100000000003</v>
+        <v>-0.08579899999999996</v>
       </c>
       <c r="H24" t="n">
-        <v>0.114307</v>
+        <v>-0.08238299999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE090A01021</t>
+          <t>INE0Z8Z23013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Capital Infra Trust InvIT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9694970000000001</v>
+        <v>0.5845860000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.97825</v>
+        <v>0.55002</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0087529999999999</v>
+        <v>0.0345660000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9694970000000001</v>
+        <v>0.5845860000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE095N01031</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>National Building Construction Corp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1260,30 +1260,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.911592</v>
+        <v>0.477199</v>
       </c>
       <c r="E26" t="n">
-        <v>0.838374</v>
+        <v>0.545754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.606518</v>
+        <v>0.510267</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07321800000000001</v>
+        <v>-0.06855499999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0.305074</v>
+        <v>-0.03306800000000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1292,30 +1292,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.75695</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.753534</v>
+        <v>1.897167</v>
       </c>
       <c r="F27" t="n">
-        <v>0.770775</v>
+        <v>1.948507</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003415999999999975</v>
+        <v>-1.897167</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01382499999999998</v>
+        <v>-1.948507</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE0Z8Z23013</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Capital Infra Trust InvIT</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,30 +1324,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.55002</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.139906</v>
       </c>
       <c r="G28" t="n">
-        <v>0.55002</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.55002</v>
+        <v>-0.139906</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE095N01031</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>National Building Construction Corp</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1356,30 +1356,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.545754</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.510267</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.51168</v>
+        <v>1.53831</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03548699999999994</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03407399999999994</v>
+        <v>-1.53831</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,27 +1391,27 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.365265</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.908766</v>
+        <v>1.077541</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.365265</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.908766</v>
+        <v>-1.077541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE029A01011</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corp Ltd</t>
+          <t>Britannia Industries Limited</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1423,27 +1423,27 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.875591</v>
       </c>
       <c r="F31" t="n">
-        <v>1.633967</v>
+        <v>3.665344</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-3.875591</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.633967</v>
+        <v>-3.665344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE031A01017</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Housing &amp; Urban Devlopment Company Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1455,27 +1455,27 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.490977</v>
+        <v>1.491722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.484655</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.490977</v>
+        <v>-1.491722</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.484655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1487,27 +1487,27 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.239006</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.181843</v>
+        <v>3.365265</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.239006</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.181843</v>
+        <v>-3.365265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE009A01021</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1522,24 +1522,24 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.138899</v>
+        <v>0.295267</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.138899</v>
+        <v>-0.295267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1551,27 +1551,27 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.295267</v>
+        <v>1.432332</v>
       </c>
       <c r="F35" t="n">
-        <v>0.327926</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.295267</v>
+        <v>-1.432332</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.327926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1583,27 +1583,27 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.484565</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.239006</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.484565</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-1.239006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE699H01024</t>
+          <t>INE031A01017</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adani Wilmar Limited</t>
+          <t>Housing &amp; Urban Devlopment Company Ltd</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1618,24 +1618,24 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.386145</v>
+        <v>0.490977</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.386145</v>
+        <v>-0.490977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE686F01025</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UNITED BREWERIES LIMITED</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1650,141 +1650,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.272686</v>
+        <v>1.484565</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.272686</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>INE467B01029</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>quant Flexi Cap Fund</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.077541</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.046687</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1.077541</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-1.046687</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>INE424H01027</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SUN TV Network Limited</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>quant Flexi Cap Fund</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.53831</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.550078</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1.53831</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-1.550078</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>INE423A20016</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Adani Enterprises Limited Rights</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>quant Flexi Cap Fund</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.139906</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.139906</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>INE326A01037</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Lupin Limited</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>quant Flexi Cap Fund</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.766368</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-1.766368</v>
+        <v>-1.484565</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>7.453207</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7.351753</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.955867</v>
-      </c>
       <c r="G2" t="n">
+        <v>6.281494</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1014539999999995</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.4973400000000003</v>
+      <c r="I2" t="n">
+        <v>1.171713</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>7.443543</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.299758</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.346369</v>
-      </c>
       <c r="G3" t="n">
+        <v>8.568533</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1437850000000003</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.09717399999999987</v>
+      <c r="I3" t="n">
+        <v>-1.12499</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>5.883813</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.351335</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.414061</v>
-      </c>
       <c r="G4" t="n">
+        <v>5.009561</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5324780000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.4697519999999997</v>
+      <c r="I4" t="n">
+        <v>0.8742520000000003</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>5.877507</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.049553</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.009159</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.516237</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.1720460000000008</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.1316520000000008</v>
+      <c r="I5" t="n">
+        <v>-0.6387300000000007</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>4.404164</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.862049</v>
       </c>
-      <c r="F6" t="n">
-        <v>4.924742</v>
-      </c>
       <c r="G6" t="n">
+        <v>4.917711</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.4578850000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.5205780000000004</v>
+      <c r="I6" t="n">
+        <v>-0.513547</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.282834</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.123191</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.209026</v>
-      </c>
       <c r="G7" t="n">
+        <v>4.195969</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.159643</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.07380800000000054</v>
+      <c r="I7" t="n">
+        <v>0.08686500000000041</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>3.926565</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.785962</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.681313</v>
-      </c>
       <c r="G8" t="n">
+        <v>3.633979</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.140603</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.2452520000000002</v>
+      <c r="I8" t="n">
+        <v>0.292586</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.691426</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.336568</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.16152</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.087978</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3548579999999997</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.529906</v>
+      <c r="I9" t="n">
+        <v>0.6034479999999998</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.458773</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.328043</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.336922</v>
-      </c>
       <c r="G10" t="n">
+        <v>3.451812</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1307299999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.1218509999999999</v>
+      <c r="I10" t="n">
+        <v>0.006960999999999995</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.364805</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>10.053029</v>
       </c>
-      <c r="F11" t="n">
-        <v>10.300972</v>
-      </c>
       <c r="G11" t="n">
+        <v>10.376913</v>
+      </c>
+      <c r="H11" t="n">
         <v>-6.688224</v>
       </c>
-      <c r="H11" t="n">
-        <v>-6.936166999999999</v>
+      <c r="I11" t="n">
+        <v>-7.012108</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.987864</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.9694970000000001</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.97825</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.018367</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.009614</v>
+      <c r="I12" t="n">
+        <v>2.987864</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.859032</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.951742</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.756796</v>
-      </c>
       <c r="G13" t="n">
+        <v>2.87481</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.09270999999999985</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.102236</v>
+      <c r="I13" t="n">
+        <v>-0.01577800000000007</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2.32312</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.569009</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.588262</v>
-      </c>
       <c r="G14" t="n">
+        <v>2.122328</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.245889</v>
       </c>
-      <c r="H14" t="n">
-        <v>-0.265142</v>
+      <c r="I14" t="n">
+        <v>0.2007919999999999</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>2.144618</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.042605</v>
       </c>
-      <c r="F15" t="n">
-        <v>2.031334</v>
-      </c>
       <c r="G15" t="n">
+        <v>1.938514</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1020129999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.1132839999999997</v>
+      <c r="I15" t="n">
+        <v>0.2061039999999998</v>
       </c>
     </row>
     <row r="16">
@@ -939,21 +1014,26 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.941982</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.941982</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1.941982</v>
       </c>
+      <c r="I16" t="n">
+        <v>1.941982</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,20 +1051,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.84647</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.858064</v>
       </c>
-      <c r="F17" t="n">
-        <v>2.076612</v>
-      </c>
       <c r="G17" t="n">
+        <v>2.050228</v>
+      </c>
+      <c r="H17" t="n">
         <v>-0.01159399999999988</v>
       </c>
-      <c r="H17" t="n">
-        <v>-0.2301419999999998</v>
+      <c r="I17" t="n">
+        <v>-0.2037580000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1003,19 +1088,24 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.731116</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.545383</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1857330000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>1.731116</v>
       </c>
     </row>
@@ -1035,20 +1125,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.681287</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.488858</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.423964</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.428548</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.192429</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.257323</v>
+      <c r="I19" t="n">
+        <v>0.252739</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.659231</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.69732</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.572018</v>
-      </c>
       <c r="G20" t="n">
+        <v>1.679708</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.03808900000000004</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.08721299999999998</v>
+      <c r="I20" t="n">
+        <v>-0.02047700000000008</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1.041856</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.911592</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.838374</v>
-      </c>
       <c r="G21" t="n">
+        <v>0.606518</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1302639999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.2034819999999999</v>
+      <c r="I21" t="n">
+        <v>0.4353379999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>1.005478</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.071872</v>
       </c>
-      <c r="F22" t="n">
-        <v>1.012415</v>
-      </c>
       <c r="G22" t="n">
+        <v>1.000521</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.06639399999999984</v>
       </c>
-      <c r="H22" t="n">
-        <v>-0.006936999999999971</v>
+      <c r="I22" t="n">
+        <v>0.0049570000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1163,20 +1273,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0.996851</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.028634</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.951203</v>
-      </c>
       <c r="G23" t="n">
+        <v>0.914327</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.03178300000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0.04564800000000002</v>
+      <c r="I23" t="n">
+        <v>0.08252400000000004</v>
       </c>
     </row>
     <row r="24">
@@ -1195,20 +1310,25 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>0.6711510000000001</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.75695</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.753534</v>
-      </c>
       <c r="G24" t="n">
+        <v>0.770775</v>
+      </c>
+      <c r="H24" t="n">
         <v>-0.08579899999999996</v>
       </c>
-      <c r="H24" t="n">
-        <v>-0.08238299999999998</v>
+      <c r="I24" t="n">
+        <v>-0.09962399999999993</v>
       </c>
     </row>
     <row r="25">
@@ -1227,19 +1347,24 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>0.5845860000000001</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.55002</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.0345660000000001</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0.5845860000000001</v>
       </c>
     </row>
@@ -1259,31 +1384,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>0.477199</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.545754</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.510267</v>
-      </c>
       <c r="G26" t="n">
+        <v>0.51168</v>
+      </c>
+      <c r="H26" t="n">
         <v>-0.06855499999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>-0.03306800000000004</v>
+      <c r="I26" t="n">
+        <v>-0.03448100000000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,31 +1421,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>1.897167</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.948507</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.897167</v>
+        <v>0.327926</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.948507</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.327926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Bharat Petroleum Corp Ltd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,31 +1458,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.139906</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.633967</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.139906</v>
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1.633967</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE031A01017</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Housing &amp; Urban Devlopment Company Ltd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1355,31 +1495,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.53831</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.484655</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.53831</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.484655</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1387,31 +1532,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.077541</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.181843</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.077541</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1.181843</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE860A01027</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Britannia Industries Limited</t>
+          <t>HCL Technologies Limited</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1419,31 +1569,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>3.875591</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.665344</v>
+        <v>1.432332</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.875591</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.665344</v>
+        <v>-1.432332</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE776C01039</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>GMR Airports Limited</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1451,31 +1606,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>1.491722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.491722</v>
+        <v>2.908766</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.908766</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INE776C01039</t>
+          <t>INE009A01021</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GMR Airports Limited</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1483,31 +1643,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3.365265</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.138899</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.365265</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1.138899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1515,31 +1680,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.295267</v>
+        <v>1.897167</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.029543</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.295267</v>
+        <v>-1.897167</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-2.029543</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE699H01024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Adani Wilmar Limited</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1547,31 +1717,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>1.432332</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.432332</v>
+        <v>0.386145</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.386145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE686F01025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>UNITED BREWERIES LIMITED</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1579,31 +1754,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.239006</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.272686</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.239006</v>
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1.272686</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INE031A01017</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Housing &amp; Urban Devlopment Company Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1611,31 +1791,36 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.490977</v>
+        <v>1.491722</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.490977</v>
+        <v>-1.491722</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1643,20 +1828,136 @@
           <t>quant Flexi Cap Fund</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.484565</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.046687</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.484565</v>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1.046687</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>INE424H01027</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SUN TV Network Limited</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.550078</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-1.550078</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>INE216A01030</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Britannia Industries Limited</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.875591</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.647017</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-3.875591</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-3.647017</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>INE326A01037</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lupin Limited</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.766368</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1.766368</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Flexi_Cap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7.453207</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>7.351753</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6.281494</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.1014539999999995</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.171713</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>7.443543</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.299758</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.568533</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.1437850000000003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-1.12499</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.883813</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>5.351335</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5.009561</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.5324780000000002</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.8742520000000003</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5.877507</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>6.049553</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.516237</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.1720460000000008</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.6387300000000007</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4.404164</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.862049</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.917711</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.4578850000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.513547</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4.282834</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.123191</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.195969</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.159643</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.08686500000000041</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.926565</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3.785962</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>3.633979</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.140603</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.292586</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.691426</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.336568</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.087978</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.3548579999999997</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.6034479999999998</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.458773</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.328043</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.451812</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.1307299999999998</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.006960999999999995</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.364805</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>10.053029</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>10.376913</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>-6.688224</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-7.012108</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.987864</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.9694970000000001</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.018367</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2.987864</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.859032</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.951742</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.87481</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.09270999999999985</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.01577800000000007</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.32312</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.569009</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.122328</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.245889</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.2007919999999999</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.144618</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.042605</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.938514</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.1020129999999999</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.2061039999999998</v>
       </c>
     </row>
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.941982</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.941982</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1.941982</v>
       </c>
+      <c r="J16" t="n">
+        <v>1.941982</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.84647</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.858064</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2.050228</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.01159399999999988</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.2037580000000001</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.731116</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.545383</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.1857330000000001</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1.731116</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.681287</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.488858</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.428548</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.192429</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.252739</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.659231</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.69732</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.679708</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.03808900000000004</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.02047700000000008</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.041856</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.911592</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.606518</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.1302639999999999</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.4353379999999999</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.005478</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.071872</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>1.000521</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.06639399999999984</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.0049570000000001</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.996851</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.028634</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.914327</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-0.03178300000000001</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.08252400000000004</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.6711510000000001</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.75695</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.770775</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.08579899999999996</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.09962399999999993</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.5845860000000001</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.55002</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.0345660000000001</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.5845860000000001</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.477199</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.545754</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.51168</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-0.06855499999999998</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-0.03448100000000004</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.327926</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>-0.327926</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.633967</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-1.633967</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.484655</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>-0.484655</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.181843</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>-1.181843</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.432332</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>-1.432332</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>2.908766</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>-2.908766</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.138899</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>-1.138899</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.897167</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>2.029543</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-1.897167</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>-2.029543</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.386145</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>-0.386145</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.272686</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>-1.272686</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.491722</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>-1.491722</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.046687</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>-1.046687</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.550078</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>-1.550078</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>3.875591</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>3.647017</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>-3.875591</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>-3.647017</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>quant Flexi Cap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>quant Flexi Cap Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.766368</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>-1.766368</v>
       </c>
     </row>
